--- a/python_img_demo/python学习笔记.xlsx
+++ b/python_img_demo/python学习笔记.xlsx
@@ -11,12 +11,15 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A:$T</definedName>
+  </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="189">
   <si>
     <t>第1 章正则表达式</t>
   </si>
@@ -334,6 +337,305 @@
   </si>
   <si>
     <t>表 示 法                       描 述                              正则表达式示例</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2.3 从字符串起始或者结尾或者单词边界匹配</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    还有些符号和相关的特殊字符用于在字符串的起始和结尾部分指定用于搜索的模式。如</t>
+  </si>
+  <si>
+    <t>果要匹配字符串的开始位置，就必须使用脱字符（^）或者特殊字符\A（反斜线和大写字母A）。</t>
+  </si>
+  <si>
+    <t>后者主要用于那些没有脱字符的键盘（例如，某些国际键盘）。同样，美元符号（$）或者\Z</t>
+  </si>
+  <si>
+    <t>将用于匹配字符串的末尾位置。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    使用这些符号的模式与本章描述的其他大多数模式是不同的，因为这些模式指定了位置</t>
+  </si>
+  <si>
+    <t>或方位。之前的“核心提示”记录了匹配（试图在字符串的开始位置进行匹配）和搜索（试</t>
+  </si>
+  <si>
+    <t>图从字符串的任何位置开始匹配）之间的差别。正因如此，下面是一些表示“边界绑定”的</t>
+  </si>
+  <si>
+    <t>正则表达式搜索模式的示例。</t>
+  </si>
+  <si>
+    <t>正则表达式模式           匹配的字符串</t>
+  </si>
+  <si>
+    <t>^From                任何以From 作为起始的字符串</t>
+  </si>
+  <si>
+    <t>/bin/tcsh$           任何以/bin/tcsh 作为结尾的字符串</t>
+  </si>
+  <si>
+    <t>^Subject: hi$        任何由单独的字符串Subject: hi 构成的字符串</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    再次说明，如果想要逐字匹配这些字符中的任何一个（或者全部），就必须使用反斜线进</t>
+  </si>
+  <si>
+    <t>行转义。例如，如果你想要匹配任何以美元符号结尾的字符串，一个可行的正则表达式方案</t>
+  </si>
+  <si>
+    <t>就是使用模式.*\$$。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    特殊字符\b 和\B 可以用来匹配字符边界。而两者的区别在于\b 将用于匹配一个单词的边</t>
+  </si>
+  <si>
+    <t>界，这意味着如果一个模式必须位于单词的起始部分，就不管该单词前面（单词位于字符串</t>
+  </si>
+  <si>
+    <t>中间）是否有任何字符（单词位于行首）。同样，\B 将匹配出现在一个单词中间的模式（即，</t>
+  </si>
+  <si>
+    <t>不是单词边界）。下面为一些示例。</t>
+  </si>
+  <si>
+    <t>the                        任何包含the 的字符串</t>
+  </si>
+  <si>
+    <t>\bthe                      任何以the 开始的字符串</t>
+  </si>
+  <si>
+    <t>\bthe\b                    仅仅匹配单词the</t>
+  </si>
+  <si>
+    <t>\Bthe                      任何包含但并不以the 作为起始的字符串</t>
+  </si>
+  <si>
+    <t>1.2.4 创建字符集</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    尽管句点可以用于匹配任意符号，但某些时候，可能想要匹配某些特定字符。正因如此，</t>
+  </si>
+  <si>
+    <t>发明了方括号。该正则表达式能够匹配一对方括号中包含的任何字符。下面为一些示例。</t>
+  </si>
+  <si>
+    <t>正则表达式模式                   匹配的字符串</t>
+  </si>
+  <si>
+    <t>b[aeiu]t           bat、bet、bit、but</t>
+  </si>
+  <si>
+    <t>[cr][23][dp][o2]    一个包含四个字符的字符串，第一个字符是“c”或“r”，然后是“2”或</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    关于[cr][23][dp][o2]这个正则表达式有一点需要说明：如果仅允许“r2d2”或者“c3po”</t>
+  </si>
+  <si>
+    <t>作为有效字符串，就需要更严格限定的正则表达式。因为方括号仅仅表示逻辑或的功能，</t>
+  </si>
+  <si>
+    <t>所以使用方括号并不能实现这一限定要求。唯一的方案就是使用择一匹配，例如，</t>
+  </si>
+  <si>
+    <t>r2d2|c3po。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    然而，对于单个字符的正则表达式，使用择一匹配和字符集是等效的。例如，我们以正</t>
+  </si>
+  <si>
+    <t>则表达式“ab”作为开始，该正则表达式只匹配包含字母“a”且后面跟着字母“b”的字符</t>
+  </si>
+  <si>
+    <t>串，如果我们想要匹配一个字母的字符串，例如，要么匹配“a”，要么匹配“b”，就可以使</t>
+  </si>
+  <si>
+    <t>用正则表达式[ab]，因为此时字母“a”和字母“b”是相互独立的字符串。我们也可以选择</t>
+  </si>
+  <si>
+    <t>正则表达式a|b。然而，如果我们想要匹配满足模式“ab”后面且跟着“cd”的字符串，我们</t>
+  </si>
+  <si>
+    <t>就不能使用方括号，因为字符集的方法只适用于单字符的情况。这种情况下，唯一的方法就</t>
+  </si>
+  <si>
+    <t>是使用ab|cd，这与刚才提到的r2d2/c3po 问题是相同的。</t>
+  </si>
+  <si>
+    <t>1.2.5 限定范围和否定</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    除了单字符以外，字符集还支持匹配指定的字符范围。方括号中两个符号中间用连字符</t>
+  </si>
+  <si>
+    <t>(-)连接，用于指定一个字符的范围；例如，A-Z、a-z 或者0-9 分别用于表示大写字母、小</t>
+  </si>
+  <si>
+    <t>写字母和数值数字。这是一个按照字母顺序的范围，所以不能将它们仅仅限定用于字母和十</t>
+  </si>
+  <si>
+    <t>进制数字上。另外，如果脱字符(^)紧跟在左方括号后面，这个符号就表示不匹配给定字符</t>
+  </si>
+  <si>
+    <t>集中的任何一个字符。</t>
+  </si>
+  <si>
+    <t>正则表达式模式        匹配的字符串</t>
+  </si>
+  <si>
+    <t>z.[0-9]          字母“z”后面跟着任何一个字符，然后跟着一个数字</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 然后跟着“u”或者“s”</t>
+  </si>
+  <si>
+    <t>[^aeiou]         一个非元音字符（练习：为什么我们说“非元音”而不是“辅音”？）</t>
+  </si>
+  <si>
+    <t>[^\t\n]          不匹配制表符或者\n</t>
+  </si>
+  <si>
+    <t>[“-a]            在一个ASCII 系统中，所有字符都位于“”和“a”之间，即34~97 之间</t>
+  </si>
+  <si>
+    <t>1.2.6 使用闭包操作符实现存在性和频数匹配</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    本节介绍最常用的正则表达式符号，即特殊符号*、+和？，所有这些都可以用于匹配一</t>
+  </si>
+  <si>
+    <t>个、多个或者没有出现的字符串模式。星号或者星号操作符（*）将匹配其左边的正则表达式</t>
+  </si>
+  <si>
+    <t>出现零次或者多次的情况（在计算机编程语言和编译原理中，该操作称为Kleene 闭包）。加</t>
+  </si>
+  <si>
+    <t>号（+）操作符将匹配一次或者多次出现的正则表达式（也叫做正闭包操作符），问号（？）</t>
+  </si>
+  <si>
+    <t>操作符将匹配零次或者一次出现的正则表达式。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    还有大括号操作符（{}），里面或者是单个值或者是一对由逗号分隔的值。这将最终精</t>
+  </si>
+  <si>
+    <t>确地匹配前面的正则表达式N 次（如果是{N}）或者一定范围的次数；例如，{M，N}将匹</t>
+  </si>
+  <si>
+    <t>配M～N 次出现。这些符号能够由反斜线符号转义；\*匹配星号，等等。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    注意，在之前的表格中曾经多次使用问号（重载），这意味着要么匹配0 次，要么匹配1</t>
+  </si>
+  <si>
+    <t>次，或者其他含义：如果问号紧跟在任何使用闭合操作符的匹配后面，它将直接要求正则表</t>
+  </si>
+  <si>
+    <t>达式引擎匹配尽可能少的次数。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    “尽可能少的次数”是什么意思？当模式匹配使用分组操作符时，正则表达式引擎将试图</t>
+  </si>
+  <si>
+    <t>“吸收”匹配该模式的尽可能多的字符。这通常被叫做贪婪匹配。问号要求正则表达式引擎去</t>
+  </si>
+  <si>
+    <t>“偷懒”，如果可能，就在当前的正则表达式中尽可能少地匹配字符，留下尽可能多的字符给</t>
+  </si>
+  <si>
+    <t>后面的模式（如果存在）。本章末尾将用一个典型的示例来说明非贪婪匹配是很有必要的。现</t>
+  </si>
+  <si>
+    <t>在继续查看闭包操作符。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 dot、not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0?[1-9]          任何数值数字，它可能前置一个“0”，例如，匹配一系列数（表示从1～9 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 月的数值），不管是一个还是两个数字</t>
+  </si>
+  <si>
+    <t>[0-9]{15,16}     匹配 15 或者16 个数字（例如信用卡号码）</t>
+  </si>
+  <si>
+    <t>&lt;/?[^&gt;]+&gt;        匹配全部有效的（和无效的）HTML 标签</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 面加上“a1”～“h8”之间的棋盘坐标。前面的坐标表示从哪里开始走棋，后</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 面的坐标代表走到哪个位置（棋格）上</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 吃子和将军）。即“K”、“Q”、“R”、“B”、“N”或“P”等字母后</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[KQRBNP][a-h][1-8]-[a-h][1-8]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>在“长代数”标记法中，表示国际象棋合法的棋盘移动（仅移动，不包括</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[r-u][env-y][us] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>字母“r”、“s”、“t”或者“u”后面跟着“e”、“n”、“v”、“w”、“x”或者“y”，</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[dn]ot?        字母“d”或者“n”，后面跟着一个“o”，然后是最多一个“t”，例如，do、no、</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                    “3”，后面是“d”或“p”，最后要么是“o”要么是“2”。例如，c2do、</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                    r3p2、r2d2、c3po 等</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -341,7 +643,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -383,6 +685,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -392,7 +726,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -433,11 +767,71 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -447,6 +841,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -808,10 +1210,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T139"/>
+  <dimension ref="A1:T234"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A118" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L146" sqref="L146"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A220" zoomScale="70" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="Q149" sqref="P149:Q149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1506,6 +1908,1029 @@
       <c r="A139" t="s">
         <v>104</v>
       </c>
+    </row>
+    <row r="141" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A141" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="142" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A142" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="143" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A143" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="144" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A144" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A145" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A146" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A147" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A148" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A149" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A150" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A151" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A152" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A153" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A154" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A155" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A156" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A157" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A158" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A159" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A160" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="163" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A163" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B163" s="9"/>
+      <c r="C163" s="9"/>
+      <c r="D163" s="9"/>
+      <c r="E163" s="9"/>
+      <c r="F163" s="9"/>
+      <c r="G163" s="9"/>
+      <c r="H163" s="9"/>
+      <c r="I163" s="9"/>
+      <c r="J163" s="9"/>
+      <c r="K163" s="9"/>
+      <c r="L163" s="9"/>
+      <c r="M163" s="9"/>
+      <c r="N163" s="9"/>
+      <c r="O163" s="9"/>
+      <c r="P163" s="9"/>
+      <c r="Q163" s="9"/>
+      <c r="R163" s="9"/>
+      <c r="S163" s="9"/>
+      <c r="T163" s="9"/>
+    </row>
+    <row r="164" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A164" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B164" s="10"/>
+      <c r="C164" s="10"/>
+      <c r="D164" s="10"/>
+      <c r="E164" s="10"/>
+      <c r="F164" s="10"/>
+      <c r="G164" s="10"/>
+      <c r="H164" s="10"/>
+      <c r="I164" s="10"/>
+      <c r="J164" s="10"/>
+      <c r="K164" s="10"/>
+      <c r="L164" s="10"/>
+      <c r="M164" s="10"/>
+      <c r="N164" s="10"/>
+      <c r="O164" s="10"/>
+      <c r="P164" s="10"/>
+      <c r="Q164" s="10"/>
+      <c r="R164" s="10"/>
+      <c r="S164" s="10"/>
+      <c r="T164" s="10"/>
+    </row>
+    <row r="165" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A165" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B165" s="10"/>
+      <c r="C165" s="10"/>
+      <c r="D165" s="10"/>
+      <c r="E165" s="10"/>
+      <c r="F165" s="10"/>
+      <c r="G165" s="10"/>
+      <c r="H165" s="10"/>
+      <c r="I165" s="10"/>
+      <c r="J165" s="10"/>
+      <c r="K165" s="10"/>
+      <c r="L165" s="10"/>
+      <c r="M165" s="10"/>
+      <c r="N165" s="10"/>
+      <c r="O165" s="10"/>
+      <c r="P165" s="10"/>
+      <c r="Q165" s="10"/>
+      <c r="R165" s="10"/>
+      <c r="S165" s="10"/>
+      <c r="T165" s="10"/>
+    </row>
+    <row r="166" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A166" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B166" s="10"/>
+      <c r="C166" s="10"/>
+      <c r="D166" s="10"/>
+      <c r="E166" s="10"/>
+      <c r="F166" s="10"/>
+      <c r="G166" s="10"/>
+      <c r="H166" s="10"/>
+      <c r="I166" s="10"/>
+      <c r="J166" s="10"/>
+      <c r="K166" s="10"/>
+      <c r="L166" s="10"/>
+      <c r="M166" s="10"/>
+      <c r="N166" s="10"/>
+      <c r="O166" s="10"/>
+      <c r="P166" s="10"/>
+      <c r="Q166" s="10"/>
+      <c r="R166" s="10"/>
+      <c r="S166" s="10"/>
+      <c r="T166" s="10"/>
+    </row>
+    <row r="167" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A167" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="B167" s="11"/>
+      <c r="C167" s="11"/>
+      <c r="D167" s="11"/>
+      <c r="E167" s="11"/>
+      <c r="F167" s="11"/>
+      <c r="G167" s="11"/>
+      <c r="H167" s="11"/>
+      <c r="I167" s="11"/>
+      <c r="J167" s="11"/>
+      <c r="K167" s="11"/>
+      <c r="L167" s="11"/>
+      <c r="M167" s="11"/>
+      <c r="N167" s="11"/>
+      <c r="O167" s="11"/>
+      <c r="P167" s="11"/>
+      <c r="Q167" s="11"/>
+      <c r="R167" s="11"/>
+      <c r="S167" s="11"/>
+      <c r="T167" s="11"/>
+    </row>
+    <row r="168" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A168" s="14"/>
+      <c r="B168" s="14"/>
+      <c r="C168" s="14"/>
+      <c r="D168" s="14"/>
+      <c r="E168" s="14"/>
+      <c r="F168" s="14"/>
+      <c r="G168" s="14"/>
+      <c r="H168" s="14"/>
+      <c r="I168" s="14"/>
+      <c r="J168" s="14"/>
+      <c r="K168" s="14"/>
+      <c r="L168" s="14"/>
+      <c r="M168" s="14"/>
+      <c r="N168" s="14"/>
+      <c r="O168" s="14"/>
+      <c r="P168" s="14"/>
+      <c r="Q168" s="14"/>
+      <c r="R168" s="14"/>
+      <c r="S168" s="14"/>
+      <c r="T168" s="14"/>
+    </row>
+    <row r="169" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A169" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="170" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A170" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="171" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A171" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="173" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A173" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B173" s="9"/>
+      <c r="C173" s="9"/>
+      <c r="D173" s="9"/>
+      <c r="E173" s="9"/>
+      <c r="F173" s="9"/>
+      <c r="G173" s="9"/>
+      <c r="H173" s="9"/>
+      <c r="I173" s="9"/>
+      <c r="J173" s="9"/>
+      <c r="K173" s="9"/>
+      <c r="L173" s="9"/>
+      <c r="M173" s="9"/>
+      <c r="N173" s="9"/>
+      <c r="O173" s="9"/>
+      <c r="P173" s="9"/>
+      <c r="Q173" s="9"/>
+      <c r="R173" s="9"/>
+      <c r="S173" s="9"/>
+      <c r="T173" s="9"/>
+    </row>
+    <row r="174" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A174" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="B174" s="12"/>
+      <c r="C174" s="12"/>
+      <c r="D174" s="12"/>
+      <c r="E174" s="12"/>
+      <c r="F174" s="12"/>
+      <c r="G174" s="12"/>
+      <c r="H174" s="12"/>
+      <c r="I174" s="12"/>
+      <c r="J174" s="12"/>
+      <c r="K174" s="12"/>
+      <c r="L174" s="12"/>
+      <c r="M174" s="12"/>
+      <c r="N174" s="12"/>
+      <c r="O174" s="12"/>
+      <c r="P174" s="12"/>
+      <c r="Q174" s="12"/>
+      <c r="R174" s="12"/>
+      <c r="S174" s="12"/>
+      <c r="T174" s="12"/>
+    </row>
+    <row r="175" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A175" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B175" s="12"/>
+      <c r="C175" s="12"/>
+      <c r="D175" s="12"/>
+      <c r="E175" s="12"/>
+      <c r="F175" s="12"/>
+      <c r="G175" s="12"/>
+      <c r="H175" s="12"/>
+      <c r="I175" s="12"/>
+      <c r="J175" s="12"/>
+      <c r="K175" s="12"/>
+      <c r="L175" s="12"/>
+      <c r="M175" s="12"/>
+      <c r="N175" s="12"/>
+      <c r="O175" s="12"/>
+      <c r="P175" s="12"/>
+      <c r="Q175" s="12"/>
+      <c r="R175" s="12"/>
+      <c r="S175" s="12"/>
+      <c r="T175" s="12"/>
+    </row>
+    <row r="176" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A176" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="B176" s="14"/>
+      <c r="C176" s="14"/>
+      <c r="D176" s="14"/>
+      <c r="E176" s="14"/>
+      <c r="F176" s="14"/>
+      <c r="G176" s="14"/>
+      <c r="H176" s="14"/>
+      <c r="I176" s="14"/>
+      <c r="J176" s="14"/>
+      <c r="K176" s="14"/>
+      <c r="L176" s="14"/>
+      <c r="M176" s="14"/>
+      <c r="N176" s="14"/>
+      <c r="O176" s="14"/>
+      <c r="P176" s="14"/>
+      <c r="Q176" s="14"/>
+      <c r="R176" s="14"/>
+      <c r="S176" s="14"/>
+      <c r="T176" s="14"/>
+    </row>
+    <row r="177" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A177" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="B177" s="13"/>
+      <c r="C177" s="13"/>
+      <c r="D177" s="13"/>
+      <c r="E177" s="13"/>
+      <c r="F177" s="13"/>
+      <c r="G177" s="13"/>
+      <c r="H177" s="13"/>
+      <c r="I177" s="13"/>
+      <c r="J177" s="13"/>
+      <c r="K177" s="13"/>
+      <c r="L177" s="13"/>
+      <c r="M177" s="13"/>
+      <c r="N177" s="13"/>
+      <c r="O177" s="13"/>
+      <c r="P177" s="13"/>
+      <c r="Q177" s="13"/>
+      <c r="R177" s="13"/>
+      <c r="S177" s="13"/>
+      <c r="T177" s="13"/>
+    </row>
+    <row r="178" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A178" s="14"/>
+      <c r="B178" s="14"/>
+      <c r="C178" s="14"/>
+      <c r="D178" s="14"/>
+      <c r="E178" s="14"/>
+      <c r="F178" s="14"/>
+      <c r="G178" s="14"/>
+      <c r="H178" s="14"/>
+      <c r="I178" s="14"/>
+      <c r="J178" s="14"/>
+      <c r="K178" s="14"/>
+      <c r="L178" s="14"/>
+      <c r="M178" s="14"/>
+      <c r="N178" s="14"/>
+      <c r="O178" s="14"/>
+      <c r="P178" s="14"/>
+      <c r="Q178" s="14"/>
+      <c r="R178" s="14"/>
+      <c r="S178" s="14"/>
+      <c r="T178" s="14"/>
+    </row>
+    <row r="179" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A179" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="180" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A180" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="181" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A181" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="182" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A182" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="183" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A183" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="184" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A184" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="185" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A185" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="186" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A186" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="187" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A187" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="188" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A188" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="189" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A189" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="191" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A191" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="192" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A192" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="193" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A193" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="194" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A194" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="195" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A195" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="196" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A196" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="198" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A198" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B198" s="9"/>
+      <c r="C198" s="9"/>
+      <c r="D198" s="9"/>
+      <c r="E198" s="9"/>
+      <c r="F198" s="9"/>
+      <c r="G198" s="9"/>
+      <c r="H198" s="9"/>
+      <c r="I198" s="9"/>
+      <c r="J198" s="9"/>
+      <c r="K198" s="9"/>
+      <c r="L198" s="9"/>
+      <c r="M198" s="9"/>
+      <c r="N198" s="9"/>
+      <c r="O198" s="9"/>
+      <c r="P198" s="9"/>
+      <c r="Q198" s="9"/>
+      <c r="R198" s="9"/>
+      <c r="S198" s="9"/>
+      <c r="T198" s="9"/>
+    </row>
+    <row r="199" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A199" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="B199" s="10"/>
+      <c r="C199" s="10"/>
+      <c r="D199" s="10"/>
+      <c r="E199" s="10"/>
+      <c r="F199" s="10"/>
+      <c r="G199" s="10"/>
+      <c r="H199" s="10"/>
+      <c r="I199" s="10"/>
+      <c r="J199" s="10"/>
+      <c r="K199" s="10"/>
+      <c r="L199" s="10"/>
+      <c r="M199" s="10"/>
+      <c r="N199" s="10"/>
+      <c r="O199" s="10"/>
+      <c r="P199" s="10"/>
+      <c r="Q199" s="10"/>
+      <c r="R199" s="10"/>
+      <c r="S199" s="10"/>
+      <c r="T199" s="10"/>
+    </row>
+    <row r="200" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A200" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B200" s="12"/>
+      <c r="C200" s="12"/>
+      <c r="D200" s="12"/>
+      <c r="E200" s="12"/>
+      <c r="F200" s="12"/>
+      <c r="G200" s="12"/>
+      <c r="H200" s="12"/>
+      <c r="I200" s="12"/>
+      <c r="J200" s="12"/>
+      <c r="K200" s="12"/>
+      <c r="L200" s="12"/>
+      <c r="M200" s="12"/>
+      <c r="N200" s="12"/>
+      <c r="O200" s="12"/>
+      <c r="P200" s="12"/>
+      <c r="Q200" s="12"/>
+      <c r="R200" s="12"/>
+      <c r="S200" s="12"/>
+      <c r="T200" s="12"/>
+    </row>
+    <row r="201" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A201" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="B201" s="15"/>
+      <c r="C201" s="15"/>
+      <c r="D201" s="15"/>
+      <c r="E201" s="15"/>
+      <c r="F201" s="15"/>
+      <c r="G201" s="15"/>
+      <c r="H201" s="15"/>
+      <c r="I201" s="15"/>
+      <c r="J201" s="15"/>
+      <c r="K201" s="15"/>
+      <c r="L201" s="15"/>
+      <c r="M201" s="15"/>
+      <c r="N201" s="15"/>
+      <c r="O201" s="15"/>
+      <c r="P201" s="15"/>
+      <c r="Q201" s="15"/>
+      <c r="R201" s="15"/>
+      <c r="S201" s="15"/>
+      <c r="T201" s="15"/>
+    </row>
+    <row r="202" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A202" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="B202" s="10"/>
+      <c r="C202" s="10"/>
+      <c r="D202" s="10"/>
+      <c r="E202" s="10"/>
+      <c r="F202" s="10"/>
+      <c r="G202" s="10"/>
+      <c r="H202" s="10"/>
+      <c r="I202" s="10"/>
+      <c r="J202" s="10"/>
+      <c r="K202" s="10"/>
+      <c r="L202" s="10"/>
+      <c r="M202" s="10"/>
+      <c r="N202" s="10"/>
+      <c r="O202" s="10"/>
+      <c r="P202" s="10"/>
+      <c r="Q202" s="10"/>
+      <c r="R202" s="10"/>
+      <c r="S202" s="10"/>
+      <c r="T202" s="10"/>
+    </row>
+    <row r="203" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A203" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B203" s="10"/>
+      <c r="C203" s="10"/>
+      <c r="D203" s="10"/>
+      <c r="E203" s="10"/>
+      <c r="F203" s="10"/>
+      <c r="G203" s="10"/>
+      <c r="H203" s="10"/>
+      <c r="I203" s="10"/>
+      <c r="J203" s="10"/>
+      <c r="K203" s="10"/>
+      <c r="L203" s="10"/>
+      <c r="M203" s="10"/>
+      <c r="N203" s="10"/>
+      <c r="O203" s="10"/>
+      <c r="P203" s="10"/>
+      <c r="Q203" s="10"/>
+      <c r="R203" s="10"/>
+      <c r="S203" s="10"/>
+      <c r="T203" s="10"/>
+    </row>
+    <row r="204" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A204" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="B204" s="11"/>
+      <c r="C204" s="11"/>
+      <c r="D204" s="11"/>
+      <c r="E204" s="11"/>
+      <c r="F204" s="11"/>
+      <c r="G204" s="11"/>
+      <c r="H204" s="11"/>
+      <c r="I204" s="11"/>
+      <c r="J204" s="11"/>
+      <c r="K204" s="11"/>
+      <c r="L204" s="11"/>
+      <c r="M204" s="11"/>
+      <c r="N204" s="11"/>
+      <c r="O204" s="11"/>
+      <c r="P204" s="11"/>
+      <c r="Q204" s="11"/>
+      <c r="R204" s="11"/>
+      <c r="S204" s="11"/>
+      <c r="T204" s="11"/>
+    </row>
+    <row r="205" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A205" s="14"/>
+      <c r="B205" s="14"/>
+      <c r="C205" s="14"/>
+      <c r="D205" s="14"/>
+      <c r="E205" s="14"/>
+      <c r="F205" s="14"/>
+      <c r="G205" s="14"/>
+      <c r="H205" s="14"/>
+      <c r="I205" s="14"/>
+      <c r="J205" s="14"/>
+      <c r="K205" s="14"/>
+      <c r="L205" s="14"/>
+      <c r="M205" s="14"/>
+      <c r="N205" s="14"/>
+      <c r="O205" s="14"/>
+      <c r="P205" s="14"/>
+      <c r="Q205" s="14"/>
+      <c r="R205" s="14"/>
+      <c r="S205" s="14"/>
+      <c r="T205" s="14"/>
+    </row>
+    <row r="206" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A206" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="207" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A207" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="208" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A208" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="209" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A209" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="210" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A210" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="211" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A211" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="212" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A212" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="213" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A213" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="214" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A214" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="215" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A215" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="216" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A216" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="217" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A217" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="218" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A218" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="219" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A219" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="220" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A220" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="221" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A221" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="222" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A222" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="224" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A224" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B224" s="9"/>
+      <c r="C224" s="9"/>
+      <c r="D224" s="9"/>
+      <c r="E224" s="9"/>
+      <c r="F224" s="9"/>
+      <c r="G224" s="9"/>
+      <c r="H224" s="9"/>
+      <c r="I224" s="9"/>
+      <c r="J224" s="9"/>
+      <c r="K224" s="9"/>
+      <c r="L224" s="9"/>
+      <c r="M224" s="9"/>
+      <c r="N224" s="9"/>
+      <c r="O224" s="9"/>
+      <c r="P224" s="9"/>
+      <c r="Q224" s="9"/>
+      <c r="R224" s="9"/>
+      <c r="S224" s="9"/>
+      <c r="T224" s="9"/>
+    </row>
+    <row r="225" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A225" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="B225" s="12"/>
+      <c r="C225" s="12"/>
+      <c r="D225" s="12"/>
+      <c r="E225" s="12"/>
+      <c r="F225" s="12"/>
+      <c r="G225" s="12"/>
+      <c r="H225" s="12"/>
+      <c r="I225" s="12"/>
+      <c r="J225" s="12"/>
+      <c r="K225" s="12"/>
+      <c r="L225" s="12"/>
+      <c r="M225" s="12"/>
+      <c r="N225" s="12"/>
+      <c r="O225" s="12"/>
+      <c r="P225" s="12"/>
+      <c r="Q225" s="12"/>
+      <c r="R225" s="12"/>
+      <c r="S225" s="12"/>
+      <c r="T225" s="12"/>
+    </row>
+    <row r="226" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A226" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="B226" s="15"/>
+      <c r="C226" s="15"/>
+      <c r="D226" s="15"/>
+      <c r="E226" s="15"/>
+      <c r="F226" s="15"/>
+      <c r="G226" s="15"/>
+      <c r="H226" s="15"/>
+      <c r="I226" s="15"/>
+      <c r="J226" s="15"/>
+      <c r="K226" s="15"/>
+      <c r="L226" s="15"/>
+      <c r="M226" s="15"/>
+      <c r="N226" s="15"/>
+      <c r="O226" s="15"/>
+      <c r="P226" s="15"/>
+      <c r="Q226" s="15"/>
+      <c r="R226" s="15"/>
+      <c r="S226" s="15"/>
+      <c r="T226" s="15"/>
+    </row>
+    <row r="227" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A227" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="B227" s="12"/>
+      <c r="C227" s="12"/>
+      <c r="D227" s="12"/>
+      <c r="E227" s="12"/>
+      <c r="F227" s="12"/>
+      <c r="G227" s="12"/>
+      <c r="H227" s="12"/>
+      <c r="I227" s="12"/>
+      <c r="J227" s="12"/>
+      <c r="K227" s="12"/>
+      <c r="L227" s="12"/>
+      <c r="M227" s="12"/>
+      <c r="N227" s="12"/>
+      <c r="O227" s="12"/>
+      <c r="P227" s="12"/>
+      <c r="Q227" s="12"/>
+      <c r="R227" s="12"/>
+      <c r="S227" s="12"/>
+      <c r="T227" s="12"/>
+    </row>
+    <row r="228" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A228" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="B228" s="15"/>
+      <c r="C228" s="15"/>
+      <c r="D228" s="15"/>
+      <c r="E228" s="15"/>
+      <c r="F228" s="15"/>
+      <c r="G228" s="15"/>
+      <c r="H228" s="15"/>
+      <c r="I228" s="15"/>
+      <c r="J228" s="15"/>
+      <c r="K228" s="15"/>
+      <c r="L228" s="15"/>
+      <c r="M228" s="15"/>
+      <c r="N228" s="15"/>
+      <c r="O228" s="15"/>
+      <c r="P228" s="15"/>
+      <c r="Q228" s="15"/>
+      <c r="R228" s="15"/>
+      <c r="S228" s="15"/>
+      <c r="T228" s="15"/>
+    </row>
+    <row r="229" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A229" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="B229" s="10"/>
+      <c r="C229" s="10"/>
+      <c r="D229" s="10"/>
+      <c r="E229" s="10"/>
+      <c r="F229" s="10"/>
+      <c r="G229" s="10"/>
+      <c r="H229" s="10"/>
+      <c r="I229" s="10"/>
+      <c r="J229" s="10"/>
+      <c r="K229" s="10"/>
+      <c r="L229" s="10"/>
+      <c r="M229" s="10"/>
+      <c r="N229" s="10"/>
+      <c r="O229" s="10"/>
+      <c r="P229" s="10"/>
+      <c r="Q229" s="10"/>
+      <c r="R229" s="10"/>
+      <c r="S229" s="10"/>
+      <c r="T229" s="10"/>
+    </row>
+    <row r="230" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A230" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="B230" s="10"/>
+      <c r="C230" s="10"/>
+      <c r="D230" s="10"/>
+      <c r="E230" s="10"/>
+      <c r="F230" s="10"/>
+      <c r="G230" s="10"/>
+      <c r="H230" s="10"/>
+      <c r="I230" s="10"/>
+      <c r="J230" s="10"/>
+      <c r="K230" s="10"/>
+      <c r="L230" s="10"/>
+      <c r="M230" s="10"/>
+      <c r="N230" s="10"/>
+      <c r="O230" s="10"/>
+      <c r="P230" s="10"/>
+      <c r="Q230" s="10"/>
+      <c r="R230" s="10"/>
+      <c r="S230" s="10"/>
+      <c r="T230" s="10"/>
+    </row>
+    <row r="231" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A231" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="B231" s="12"/>
+      <c r="C231" s="12"/>
+      <c r="D231" s="12"/>
+      <c r="E231" s="12"/>
+      <c r="F231" s="12"/>
+      <c r="G231" s="12"/>
+      <c r="H231" s="12"/>
+      <c r="I231" s="12"/>
+      <c r="J231" s="12"/>
+      <c r="K231" s="12"/>
+      <c r="L231" s="12"/>
+      <c r="M231" s="12"/>
+      <c r="N231" s="12"/>
+      <c r="O231" s="12"/>
+      <c r="P231" s="12"/>
+      <c r="Q231" s="12"/>
+      <c r="R231" s="12"/>
+      <c r="S231" s="12"/>
+      <c r="T231" s="12"/>
+    </row>
+    <row r="232" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A232" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="B232" s="14"/>
+      <c r="C232" s="14"/>
+      <c r="D232" s="14"/>
+      <c r="E232" s="14"/>
+      <c r="F232" s="14"/>
+      <c r="G232" s="14"/>
+      <c r="H232" s="14"/>
+      <c r="I232" s="14"/>
+      <c r="J232" s="14"/>
+      <c r="K232" s="14"/>
+      <c r="L232" s="14"/>
+      <c r="M232" s="14"/>
+      <c r="N232" s="14"/>
+      <c r="O232" s="14"/>
+      <c r="P232" s="14"/>
+      <c r="Q232" s="14"/>
+      <c r="R232" s="14"/>
+      <c r="S232" s="14"/>
+      <c r="T232" s="14"/>
+    </row>
+    <row r="233" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A233" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="B233" s="14"/>
+      <c r="C233" s="14"/>
+      <c r="D233" s="14"/>
+      <c r="E233" s="14"/>
+      <c r="F233" s="14"/>
+      <c r="G233" s="14"/>
+      <c r="H233" s="14"/>
+      <c r="I233" s="14"/>
+      <c r="J233" s="14"/>
+      <c r="K233" s="14"/>
+      <c r="L233" s="14"/>
+      <c r="M233" s="14"/>
+      <c r="N233" s="14"/>
+      <c r="O233" s="14"/>
+      <c r="P233" s="14"/>
+      <c r="Q233" s="14"/>
+      <c r="R233" s="14"/>
+      <c r="S233" s="14"/>
+      <c r="T233" s="14"/>
+    </row>
+    <row r="234" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A234" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="B234" s="13"/>
+      <c r="C234" s="13"/>
+      <c r="D234" s="13"/>
+      <c r="E234" s="13"/>
+      <c r="F234" s="13"/>
+      <c r="G234" s="13"/>
+      <c r="H234" s="13"/>
+      <c r="I234" s="13"/>
+      <c r="J234" s="13"/>
+      <c r="K234" s="13"/>
+      <c r="L234" s="13"/>
+      <c r="M234" s="13"/>
+      <c r="N234" s="13"/>
+      <c r="O234" s="13"/>
+      <c r="P234" s="13"/>
+      <c r="Q234" s="13"/>
+      <c r="R234" s="13"/>
+      <c r="S234" s="13"/>
+      <c r="T234" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
